--- a/Table/Table_xls/j角色创建配置.xlsx
+++ b/Table/Table_xls/j角色创建配置.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF10500-4CBC-4DDC-A9AA-32A3709E8199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE28CAE-EFCF-40B1-AAE0-C1DB21775190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$19</definedName>
-  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -789,7 +786,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="157">
   <si>
     <t>角色id</t>
   </si>
@@ -956,9 +953,6 @@
     <t>职业底图3</t>
   </si>
   <si>
-    <t>职业大头像</t>
-  </si>
-  <si>
     <t>开始游戏按钮</t>
   </si>
   <si>
@@ -993,9 +987,6 @@
   </si>
   <si>
     <t>旗子特效</t>
-  </si>
-  <si>
-    <t>人物创建骨骼动画</t>
   </si>
   <si>
     <t>底框旗子</t>
@@ -1189,9 +1180,6 @@
     <t>spine/qizi1/qizi1</t>
   </si>
   <si>
-    <t>spine_createrole_shengqishi</t>
-  </si>
-  <si>
     <t>set:character image:lan</t>
   </si>
   <si>
@@ -1472,59 +1460,125 @@
     <t>舞天姬(仙族)</t>
   </si>
   <si>
+    <t>set:loginback12 image:wutianji2</t>
+  </si>
+  <si>
     <t>桃夭夭</t>
   </si>
   <si>
     <t>桃夭夭(仙族)</t>
   </si>
   <si>
+    <t>set:loginback18 image:tyy1</t>
+  </si>
+  <si>
     <t>狐美人</t>
   </si>
   <si>
     <t>狐美人(魔族)</t>
   </si>
   <si>
+    <t>set:loginback11 image:hmr1</t>
+  </si>
+  <si>
     <t>杀破狼</t>
   </si>
   <si>
     <t>杀破狼(魔族)</t>
   </si>
   <si>
+    <t>set:loginback16 image:wmr1</t>
+  </si>
+  <si>
     <t>偃无师</t>
   </si>
   <si>
     <t>偃无师(人族)</t>
   </si>
   <si>
+    <t>set:loginback15 image:jws1</t>
+  </si>
+  <si>
     <t>羽灵神</t>
   </si>
   <si>
     <t>羽灵神(仙族)</t>
   </si>
   <si>
+    <t>set:loginback13 image:yls1</t>
+  </si>
+  <si>
     <t>巫蛮儿</t>
   </si>
   <si>
     <t>巫蛮儿(人族)</t>
   </si>
   <si>
+    <t>set:loginback17 image:wmr1</t>
+  </si>
+  <si>
     <t>鬼潇潇</t>
   </si>
   <si>
     <t>鬼潇潇(魔族)</t>
   </si>
   <si>
+    <t>set:loginback10 image:gxx1</t>
+  </si>
+  <si>
     <t>英女侠</t>
   </si>
   <si>
     <t>英女侠(人族)</t>
+  </si>
+  <si>
+    <t>set:loginback14 image:ynx1</t>
+  </si>
+  <si>
+    <t>spine_createrole_shengqishi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物创建骨骼动画</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业大头像</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginback12</t>
+  </si>
+  <si>
+    <t>loginback18</t>
+  </si>
+  <si>
+    <t>loginback11</t>
+  </si>
+  <si>
+    <t>loginback16</t>
+  </si>
+  <si>
+    <t>loginback15</t>
+  </si>
+  <si>
+    <t>loginback13</t>
+  </si>
+  <si>
+    <t>loginback17</t>
+  </si>
+  <si>
+    <t>loginback10</t>
+  </si>
+  <si>
+    <t>loginback14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1563,6 +1617,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1649,13 +1709,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1663,122 +1768,63 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,215 +2172,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="28.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="11"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
-    <col min="8" max="8" width="22" style="34" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="35" customWidth="1"/>
-    <col min="10" max="11" width="15.28515625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="37" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="11" customWidth="1"/>
-    <col min="14" max="18" width="9" style="11" customWidth="1"/>
-    <col min="19" max="19" width="25.42578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="47.140625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="45.5703125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="46" style="11" customWidth="1"/>
-    <col min="23" max="23" width="45" style="11" customWidth="1"/>
-    <col min="24" max="25" width="46.42578125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="37.28515625" style="38" customWidth="1"/>
-    <col min="27" max="27" width="40" style="11" customWidth="1"/>
-    <col min="28" max="28" width="42.28515625" style="11" customWidth="1"/>
-    <col min="29" max="30" width="40.140625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="43.85546875" style="11" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="11"/>
-    <col min="33" max="33" width="29.5703125" style="11" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="11"/>
-    <col min="35" max="35" width="45.7109375" style="11" customWidth="1"/>
-    <col min="36" max="36" width="41.85546875" style="11" customWidth="1"/>
-    <col min="37" max="37" width="39.140625" style="11" customWidth="1"/>
-    <col min="38" max="38" width="27.140625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="24" style="11" customWidth="1"/>
-    <col min="40" max="40" width="25.42578125" style="11" customWidth="1"/>
-    <col min="41" max="41" width="19.42578125" style="11" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="4"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="22" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="51.42578125" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" customWidth="1"/>
+    <col min="22" max="22" width="46" customWidth="1"/>
+    <col min="23" max="23" width="45" customWidth="1"/>
+    <col min="24" max="25" width="46.42578125" customWidth="1"/>
+    <col min="26" max="26" width="37.28515625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="40" customWidth="1"/>
+    <col min="28" max="28" width="42.28515625" customWidth="1"/>
+    <col min="29" max="30" width="40.140625" customWidth="1"/>
+    <col min="31" max="31" width="43.85546875" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" customWidth="1"/>
+    <col min="35" max="35" width="45.7109375" customWidth="1"/>
+    <col min="36" max="36" width="41.85546875" customWidth="1"/>
+    <col min="37" max="37" width="39.140625" customWidth="1"/>
+    <col min="38" max="38" width="27.140625" customWidth="1"/>
+    <col min="39" max="39" width="49.28515625" customWidth="1"/>
+    <col min="40" max="40" width="25.42578125" customWidth="1"/>
+    <col min="41" max="41" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AO1" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="F2" s="16">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="17">
         <v>12</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>24</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="33">
         <v>7090101</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="33">
         <v>7090101</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="33">
         <v>7090101</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="34">
         <v>1010101</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="33">
         <v>7090101</v>
       </c>
       <c r="N2" s="1">
@@ -2352,104 +2394,104 @@
       <c r="R2" s="1">
         <v>7090613</v>
       </c>
-      <c r="S2" s="21"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="Y2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="Z2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="AA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="AB2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AG2" s="44"/>
+      <c r="AI2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AM2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AN2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="8">
+      <c r="AO2" s="38">
         <v>1010101</v>
       </c>
     </row>
     <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F3" s="17">
         <v>19</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="17">
         <v>12</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="16">
         <v>11</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="33">
         <v>7090104</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="33">
         <v>7090104</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="33">
         <v>7090104</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="34">
         <v>1010102</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="33">
         <v>7090104</v>
       </c>
       <c r="N3" s="1">
@@ -2467,104 +2509,104 @@
       <c r="R3" s="1">
         <v>7090613</v>
       </c>
-      <c r="S3" s="21"/>
+      <c r="S3" s="44"/>
       <c r="T3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="21" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="44"/>
+      <c r="AI3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" s="21"/>
-      <c r="AI3" s="1" t="s">
+      <c r="AL3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AM3" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM3" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" s="8">
+      <c r="AO3" s="38">
         <v>1010102</v>
       </c>
     </row>
     <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="17">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="17">
         <v>14</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>17</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="33">
         <v>7090103</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="33">
         <v>7090103</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="33">
         <v>7090103</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="35">
         <v>1010103</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="33">
         <v>7090103</v>
       </c>
       <c r="N4" s="1">
@@ -2582,104 +2624,104 @@
       <c r="R4" s="1">
         <v>7090613</v>
       </c>
-      <c r="S4" s="21"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="Z4" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="44"/>
+      <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" s="21"/>
-      <c r="AI4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AN4" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4" s="8">
+      <c r="AO4" s="38">
         <v>1010103</v>
       </c>
     </row>
     <row r="5" spans="1:66" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="17">
         <v>23</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="17">
         <v>14</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>22</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="33">
         <v>7090106</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="33">
         <v>7090106</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="33">
         <v>7090106</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="34">
         <v>1010104</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="33">
         <v>7090106</v>
       </c>
       <c r="N5" s="1">
@@ -2698,102 +2740,102 @@
         <v>7090613</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="44"/>
+      <c r="AI5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM5" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="21"/>
-      <c r="AI5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AN5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO5" s="8">
+      <c r="AO5" s="38">
         <v>1010104</v>
       </c>
     </row>
     <row r="6" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="22">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="22">
         <v>21</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>20</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="36">
         <v>7090102</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="36">
         <v>7090102</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="36">
         <v>7090102</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="37">
         <v>1010105</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="36">
         <v>7090102</v>
       </c>
       <c r="N6" s="2">
@@ -2811,104 +2853,104 @@
       <c r="R6" s="2">
         <v>7090613</v>
       </c>
-      <c r="S6" s="25"/>
+      <c r="S6" s="45"/>
       <c r="T6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="Y6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="AA6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="45"/>
+      <c r="AI6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="X6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG6" s="25"/>
-      <c r="AI6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AN6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AM6" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="51">
         <v>1010105</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="17">
         <v>15</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="17">
         <v>16</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>18</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="33">
         <v>7090105</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="33">
         <v>7090105</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="33">
         <v>7090105</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="35">
         <v>1010106</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="33">
         <v>7090105</v>
       </c>
       <c r="N7" s="1">
@@ -2927,101 +2969,101 @@
         <v>7090613</v>
       </c>
       <c r="T7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AN7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO7" s="8">
+      <c r="AO7" s="38">
         <v>1010106</v>
       </c>
     </row>
     <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="17">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="17">
         <v>21</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>20</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="33">
         <v>7090107</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="33">
         <v>7090107</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="33">
         <v>7090107</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="38">
         <v>1010107</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="33">
         <v>7090107</v>
       </c>
       <c r="N8" s="1">
@@ -3039,104 +3081,104 @@
       <c r="R8" s="1">
         <v>7090613</v>
       </c>
-      <c r="S8" s="21"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="X8" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AG8" s="44"/>
+      <c r="AI8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" s="21"/>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN8" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO8" s="8">
+      <c r="AO8" s="38">
         <v>1010107</v>
       </c>
     </row>
     <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="17">
         <v>13</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>17</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="17">
         <v>23</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="33">
         <v>7090108</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="33">
         <v>7090108</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="33">
         <v>7090108</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="38">
         <v>1010108</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="33">
         <v>7090108</v>
       </c>
       <c r="N9" s="1">
@@ -3155,102 +3197,102 @@
         <v>7090613</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="X9" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>114</v>
+      <c r="Z9" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="AA9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AG9" s="44"/>
+      <c r="AI9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG9" s="21"/>
-      <c r="AI9" s="1" t="s">
+      <c r="AK9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM9" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO9" s="8">
+      <c r="AO9" s="38">
         <v>1010108</v>
       </c>
     </row>
     <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C10" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="17">
         <v>24</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="17">
         <v>12</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>25</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="33">
         <v>7090109</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="33">
         <v>7090109</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="33">
         <v>7090109</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="38">
         <v>1010109</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="33">
         <v>7090109</v>
       </c>
       <c r="N10" s="1">
@@ -3269,65 +3311,65 @@
         <v>7090613</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="W10" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>119</v>
+      <c r="Y10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="47" t="s">
+        <v>116</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AG10" s="44"/>
+      <c r="AI10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG10" s="21"/>
-      <c r="AI10" s="1" t="s">
+      <c r="AK10" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AL10" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="AK10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10" s="21" t="s">
+      <c r="AM10" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN10" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AM10" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN10" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO10" s="8">
+      <c r="AO10" s="38">
         <v>1010109</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -3335,13 +3377,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" s="28">
         <v>15</v>
@@ -3352,117 +3394,117 @@
       <c r="H11" s="29">
         <v>20</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="39">
         <v>7090109</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="39">
         <v>7090109</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="39">
         <v>7090109</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="38">
         <v>1010110</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="39">
         <v>7090109</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="40">
         <v>7090208</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="40">
         <v>7090310</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="40">
         <v>7090411</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="40">
         <v>7090512</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="40">
         <v>7090613</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="21" t="s">
+      <c r="S11" s="46"/>
+      <c r="T11" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y11" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="X11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="21" t="s">
+      <c r="Z11" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="22" t="s">
+      <c r="AB11" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AC11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AD11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AE11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AJ11" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="1" t="s">
+      <c r="AK11" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="AL11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL11" s="21" t="s">
+      <c r="AM11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN11" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>1010101</v>
-      </c>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="28"/>
-      <c r="BG11" s="28"/>
+      <c r="AO11" s="38">
+        <v>1010110</v>
+      </c>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="42"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="42"/>
     </row>
-    <row r="12" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -3470,134 +3512,134 @@
         <v>2</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="28">
         <v>15</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="28">
         <v>21</v>
       </c>
       <c r="H12" s="29">
         <v>20</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="41">
         <v>7090102</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="41">
         <v>7090102</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="41">
         <v>7090102</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="38">
         <v>1010111</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="41">
         <v>7090102</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="42">
         <v>7090207</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="42">
         <v>7090309</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="42">
         <v>7090512</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="42">
         <v>7090613</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="21" t="s">
+      <c r="S12" s="46"/>
+      <c r="T12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="X12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA12" s="1" t="s">
+      <c r="Z12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA12" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AD12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AE12" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AJ12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
+      <c r="AK12" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM12" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>1010102</v>
-      </c>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="28"/>
-      <c r="BF12" s="28"/>
-      <c r="BG12" s="28"/>
+      <c r="AM12" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN12" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO12" s="38">
+        <v>1010111</v>
+      </c>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
     </row>
-    <row r="13" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -3605,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="F13" s="28">
         <v>23</v>
@@ -3622,113 +3664,113 @@
       <c r="H13" s="29">
         <v>22</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="41">
         <v>7090106</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="41">
         <v>7090106</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="41">
         <v>7090106</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="38">
         <v>1010112</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="41">
         <v>7090106</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="42">
         <v>7090208</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="42">
         <v>7090310</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="42">
         <v>7090512</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="42">
         <v>7090613</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="X13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="Y13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="W13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA13" s="1" t="s">
+      <c r="Z13" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AD13" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AE13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM13" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>1010103</v>
-      </c>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="28"/>
+      <c r="AK13" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM13" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN13" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO13" s="38">
+        <v>1010112</v>
+      </c>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
     </row>
-    <row r="14" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -3739,7 +3781,7 @@
         <v>127</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>128</v>
@@ -3753,121 +3795,121 @@
       <c r="H14" s="29">
         <v>17</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="41">
         <v>7090103</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="41">
         <v>7090103</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="41">
         <v>7090103</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="38">
         <v>1010113</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="41">
         <v>7090103</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="42">
         <v>7090207</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="42">
         <v>7090309</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="42">
         <v>7090512</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="42">
         <v>7090613</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="1" t="s">
+      <c r="S14" s="46"/>
+      <c r="T14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="X14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z14" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA14" s="1" t="s">
+      <c r="Y14" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AD14" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AE14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AJ14" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AK14" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM14" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>1010104</v>
-      </c>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="28"/>
-      <c r="BG14" s="28"/>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="28"/>
-      <c r="BJ14" s="28"/>
-      <c r="BK14" s="28"/>
+      <c r="AM14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN14" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO14" s="38">
+        <v>1010113</v>
+      </c>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
     </row>
-    <row r="15" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -3875,13 +3917,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="28">
         <v>19</v>
@@ -3889,125 +3931,125 @@
       <c r="G15" s="28">
         <v>12</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="30">
         <v>11</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="41">
         <v>7090104</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="41">
         <v>7090104</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="41">
         <v>7090104</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="38">
         <v>1010114</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="41">
         <v>7090104</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="42">
         <v>7090207</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="42">
         <v>7090309</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="42">
         <v>7090512</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="42">
         <v>7090613</v>
       </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V15" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y15" s="25" t="s">
+      <c r="S15" s="46"/>
+      <c r="T15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AD15" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AE15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO15" s="10">
-        <v>1010105</v>
-      </c>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="28"/>
-      <c r="BK15" s="28"/>
-      <c r="BL15" s="28"/>
+      <c r="AK15" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL15" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM15" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN15" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO15" s="38">
+        <v>1010114</v>
+      </c>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="42"/>
+      <c r="BL15" s="42"/>
     </row>
-    <row r="16" spans="1:66" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -4015,13 +4057,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F16" s="28">
         <v>15</v>
@@ -4032,124 +4074,124 @@
       <c r="H16" s="29">
         <v>20</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="41">
         <v>7090107</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="41">
         <v>7090107</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="41">
         <v>7090107</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="38">
         <v>1010115</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="41">
         <v>7090107</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="42">
         <v>7090207</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="42">
         <v>7090309</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="42">
         <v>7090512</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="42">
         <v>7090613</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="1" t="s">
+      <c r="S16" s="46"/>
+      <c r="T16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="W16" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="X16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="21" t="s">
+      <c r="X16" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y16" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="Z16" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AD16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AE16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AJ16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="1" t="s">
+      <c r="AK16" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ16" s="1" t="s">
+      <c r="AL16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN16" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN16" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO16" s="8">
-        <v>1010106</v>
-      </c>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BI16" s="28"/>
-      <c r="BJ16" s="28"/>
-      <c r="BK16" s="28"/>
-      <c r="BL16" s="28"/>
-      <c r="BM16" s="28"/>
-      <c r="BN16" s="28"/>
+      <c r="AO16" s="38">
+        <v>1010115</v>
+      </c>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="42"/>
+      <c r="BN16" s="42"/>
     </row>
-    <row r="17" spans="1:65" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -4157,15 +4199,15 @@
         <v>2</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="9">
+        <v>137</v>
+      </c>
+      <c r="F17" s="30">
         <v>11</v>
       </c>
       <c r="G17" s="28">
@@ -4174,106 +4216,106 @@
       <c r="H17" s="29">
         <v>24</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="41">
         <v>7090101</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="41">
         <v>7090101</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="41">
         <v>7090101</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="38">
         <v>1010116</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="41">
         <v>7090101</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="42">
         <v>7090207</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="42">
         <v>7090309</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="42">
         <v>7090512</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="42">
         <v>7090613</v>
       </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="21" t="s">
+      <c r="S17" s="46"/>
+      <c r="T17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AD17" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AE17" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AJ17" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="1" t="s">
+      <c r="AK17" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AL17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AM17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN17" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO17" s="8">
-        <v>1010107</v>
-      </c>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
+      <c r="AO17" s="38">
+        <v>1010116</v>
+      </c>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
     </row>
-    <row r="18" spans="1:65" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -4281,13 +4323,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F18" s="28">
         <v>13</v>
@@ -4295,125 +4337,125 @@
       <c r="G18" s="29">
         <v>17</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="28">
         <v>23</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="41">
         <v>7090108</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="41">
         <v>7090108</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="41">
         <v>7090108</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="38">
         <v>1010117</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="41">
         <v>7090108</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="42">
         <v>7090207</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="42">
         <v>7090309</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="42">
         <v>7090512</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="42">
         <v>7090613</v>
       </c>
-      <c r="S18" s="28"/>
-      <c r="T18" s="1" t="s">
+      <c r="S18" s="42"/>
+      <c r="T18" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="X18" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W18" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="X18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA18" s="1" t="s">
+      <c r="Z18" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA18" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AD18" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AE18" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AJ18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="1" t="s">
+      <c r="AK18" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AL18" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AM18" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM18" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN18" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18" s="8">
-        <v>1010108</v>
-      </c>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="28"/>
+      <c r="AO18" s="38">
+        <v>1010117</v>
+      </c>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
     </row>
-    <row r="19" spans="1:65" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -4421,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F19" s="28">
         <v>24</v>
@@ -4438,148 +4480,180 @@
       <c r="H19" s="29">
         <v>25</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="41">
         <v>7090109</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="41">
         <v>7090109</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="41">
         <v>7090109</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="38">
         <v>1010118</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="41">
         <v>7090109</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="42">
         <v>7090208</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="42">
         <v>7090310</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="42">
         <v>7090411</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="42">
         <v>7090512</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="42">
         <v>7090613</v>
       </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="1" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="W19" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA19" s="1" t="s">
+      <c r="Y19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA19" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AD19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AE19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AJ19" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="1" t="s">
+      <c r="AK19" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ19" s="1" t="s">
+      <c r="AL19" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL19" s="21" t="s">
+      <c r="AM19" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN19" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM19" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN19" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO19" s="8">
-        <v>1010109</v>
-      </c>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="28"/>
-      <c r="BJ19" s="28"/>
-      <c r="BK19" s="28"/>
-      <c r="BL19" s="28"/>
-      <c r="BM19" s="28"/>
+      <c r="AO19" s="38">
+        <v>1010118</v>
+      </c>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="42"/>
     </row>
     <row r="20" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC20" s="39"/>
+      <c r="AC20" s="50"/>
     </row>
     <row r="21" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC21" s="39"/>
+      <c r="AC21" s="50"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="56"/>
     </row>
     <row r="22" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC22" s="39"/>
+      <c r="AC22" s="50"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="56"/>
     </row>
     <row r="23" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC23" s="39"/>
+      <c r="AC23" s="50"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="56"/>
     </row>
     <row r="24" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC24" s="39"/>
+      <c r="AC24" s="50"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="56"/>
     </row>
     <row r="25" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC25" s="39"/>
+      <c r="AC25" s="50"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="56"/>
     </row>
     <row r="26" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC26" s="39"/>
+      <c r="AC26" s="50"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="56"/>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="56"/>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="56"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="56"/>
+    </row>
+    <row r="30" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="57"/>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="56"/>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO19" xr:uid="{618DF9F9-5EF0-4322-9F59-7A1762659D86}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO27">
-    <sortCondition ref="A1"/>
-  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/j角色创建配置.xlsx
+++ b/Table/Table_xls/j角色创建配置.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE28CAE-EFCF-40B1-AAE0-C1DB21775190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="F9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="G11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="H11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="F13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="H14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="F16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="H17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+    <comment ref="F18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+    <comment ref="H18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="G19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1709,7 +1703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1799,9 +1793,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2171,14 +2163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2261,7 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="41" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="10" t="s">
@@ -2290,7 +2282,7 @@
       <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="52" t="s">
         <v>147</v>
       </c>
       <c r="AA1" s="10" t="s">
@@ -2329,7 +2321,7 @@
       <c r="AL1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="53" t="s">
+      <c r="AM1" s="51" t="s">
         <v>146</v>
       </c>
       <c r="AN1" s="10" t="s">
@@ -2365,36 +2357,36 @@
         <v>24</v>
       </c>
       <c r="I2" s="33">
-        <v>7090101</v>
+        <v>8100101</v>
       </c>
       <c r="J2" s="33">
-        <v>7090101</v>
+        <v>8100101</v>
       </c>
       <c r="K2" s="33">
-        <v>7090101</v>
+        <v>8100101</v>
       </c>
       <c r="L2" s="34">
         <v>1010101</v>
       </c>
       <c r="M2" s="33">
-        <v>7090101</v>
+        <v>8100101</v>
       </c>
       <c r="N2" s="1">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O2" s="1">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P2" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q2" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R2" s="1">
-        <v>7090613</v>
-      </c>
-      <c r="S2" s="44"/>
+        <v>8100613</v>
+      </c>
+      <c r="S2" s="42"/>
       <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,16 +2396,16 @@
       <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="47" t="s">
+      <c r="Z2" s="45" t="s">
         <v>49</v>
       </c>
       <c r="AA2" s="1" t="s">
@@ -2431,23 +2423,23 @@
       <c r="AE2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="44"/>
+      <c r="AG2" s="42"/>
       <c r="AI2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AN2" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO2" s="38">
@@ -2480,36 +2472,36 @@
         <v>11</v>
       </c>
       <c r="I3" s="33">
-        <v>7090104</v>
+        <v>8100104</v>
       </c>
       <c r="J3" s="33">
-        <v>7090104</v>
+        <v>8100104</v>
       </c>
       <c r="K3" s="33">
-        <v>7090104</v>
+        <v>8100104</v>
       </c>
       <c r="L3" s="34">
         <v>1010102</v>
       </c>
       <c r="M3" s="33">
-        <v>7090104</v>
+        <v>8100104</v>
       </c>
       <c r="N3" s="1">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O3" s="1">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P3" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q3" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R3" s="1">
-        <v>7090613</v>
-      </c>
-      <c r="S3" s="44"/>
+        <v>8100613</v>
+      </c>
+      <c r="S3" s="42"/>
       <c r="T3" s="1" t="s">
         <v>64</v>
       </c>
@@ -2519,16 +2511,16 @@
       <c r="V3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="W3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="45" t="s">
         <v>66</v>
       </c>
       <c r="AA3" s="1" t="s">
@@ -2546,23 +2538,23 @@
       <c r="AE3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG3" s="44"/>
+      <c r="AG3" s="42"/>
       <c r="AI3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="44" t="s">
+      <c r="AK3" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="AL3" s="44" t="s">
+      <c r="AL3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AM3" s="52" t="s">
+      <c r="AM3" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AN3" s="42" t="s">
         <v>70</v>
       </c>
       <c r="AO3" s="38">
@@ -2595,36 +2587,36 @@
         <v>17</v>
       </c>
       <c r="I4" s="33">
-        <v>7090103</v>
+        <v>8100103</v>
       </c>
       <c r="J4" s="33">
-        <v>7090103</v>
+        <v>8100103</v>
       </c>
       <c r="K4" s="33">
-        <v>7090103</v>
+        <v>8100103</v>
       </c>
       <c r="L4" s="35">
         <v>1010103</v>
       </c>
       <c r="M4" s="33">
-        <v>7090103</v>
+        <v>8100103</v>
       </c>
       <c r="N4" s="1">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O4" s="1">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P4" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q4" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R4" s="1">
-        <v>7090613</v>
-      </c>
-      <c r="S4" s="44"/>
+        <v>8100613</v>
+      </c>
+      <c r="S4" s="42"/>
       <c r="T4" s="1" t="s">
         <v>74</v>
       </c>
@@ -2634,16 +2626,16 @@
       <c r="V4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="X4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="44" t="s">
+      <c r="Y4" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="45" t="s">
         <v>80</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -2661,23 +2653,23 @@
       <c r="AE4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="44"/>
+      <c r="AG4" s="42"/>
       <c r="AI4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK4" s="44" t="s">
+      <c r="AK4" s="42" t="s">
         <v>57</v>
       </c>
       <c r="AL4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM4" s="44" t="s">
+      <c r="AM4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO4" s="38">
@@ -2710,34 +2702,34 @@
         <v>22</v>
       </c>
       <c r="I5" s="33">
-        <v>7090106</v>
+        <v>8100106</v>
       </c>
       <c r="J5" s="33">
-        <v>7090106</v>
+        <v>8100106</v>
       </c>
       <c r="K5" s="33">
-        <v>7090106</v>
+        <v>8100106</v>
       </c>
       <c r="L5" s="34">
         <v>1010104</v>
       </c>
       <c r="M5" s="33">
-        <v>7090106</v>
+        <v>8100106</v>
       </c>
       <c r="N5" s="1">
-        <v>7090208</v>
+        <v>8100208</v>
       </c>
       <c r="O5" s="1">
-        <v>7090310</v>
+        <v>8100310</v>
       </c>
       <c r="P5" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q5" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R5" s="1">
-        <v>7090613</v>
+        <v>8100613</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>85</v>
@@ -2745,19 +2737,19 @@
       <c r="U5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="44" t="s">
+      <c r="Y5" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="45" t="s">
         <v>87</v>
       </c>
       <c r="AA5" s="1" t="s">
@@ -2775,20 +2767,20 @@
       <c r="AE5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG5" s="44"/>
+      <c r="AG5" s="42"/>
       <c r="AI5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK5" s="44" t="s">
+      <c r="AK5" s="42" t="s">
         <v>68</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM5" s="44" t="s">
+      <c r="AM5" s="42" t="s">
         <v>88</v>
       </c>
       <c r="AN5" s="1" t="s">
@@ -2824,55 +2816,55 @@
         <v>20</v>
       </c>
       <c r="I6" s="36">
-        <v>7090102</v>
+        <v>8100102</v>
       </c>
       <c r="J6" s="36">
-        <v>7090102</v>
+        <v>8100102</v>
       </c>
       <c r="K6" s="36">
-        <v>7090102</v>
+        <v>8100102</v>
       </c>
       <c r="L6" s="37">
         <v>1010105</v>
       </c>
       <c r="M6" s="36">
-        <v>7090102</v>
+        <v>8100102</v>
       </c>
       <c r="N6" s="2">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O6" s="2">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P6" s="2">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q6" s="2">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R6" s="2">
-        <v>7090613</v>
-      </c>
-      <c r="S6" s="45"/>
+        <v>8100613</v>
+      </c>
+      <c r="S6" s="43"/>
       <c r="T6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="V6" s="45" t="s">
+      <c r="V6" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="W6" s="45" t="s">
+      <c r="W6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="X6" s="45" t="s">
+      <c r="X6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="45" t="s">
+      <c r="Y6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="Z6" s="47" t="s">
+      <c r="Z6" s="45" t="s">
         <v>97</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -2890,26 +2882,26 @@
       <c r="AE6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" s="45"/>
+      <c r="AG6" s="43"/>
       <c r="AI6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AK6" s="45" t="s">
+      <c r="AK6" s="43" t="s">
         <v>57</v>
       </c>
       <c r="AL6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" s="45" t="s">
+      <c r="AM6" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AN6" s="45" t="s">
+      <c r="AN6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AO6" s="51">
+      <c r="AO6" s="49">
         <v>1010105</v>
       </c>
     </row>
@@ -2939,34 +2931,34 @@
         <v>18</v>
       </c>
       <c r="I7" s="33">
-        <v>7090105</v>
+        <v>8100105</v>
       </c>
       <c r="J7" s="33">
-        <v>7090105</v>
+        <v>8100105</v>
       </c>
       <c r="K7" s="33">
-        <v>7090105</v>
+        <v>8100105</v>
       </c>
       <c r="L7" s="35">
         <v>1010106</v>
       </c>
       <c r="M7" s="33">
-        <v>7090105</v>
+        <v>8100105</v>
       </c>
       <c r="N7" s="1">
-        <v>7090208</v>
+        <v>8100208</v>
       </c>
       <c r="O7" s="1">
-        <v>7090310</v>
+        <v>8100310</v>
       </c>
       <c r="P7" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q7" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R7" s="1">
-        <v>7090613</v>
+        <v>8100613</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>92</v>
@@ -2977,16 +2969,16 @@
       <c r="V7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="44" t="s">
+      <c r="X7" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Y7" s="44" t="s">
+      <c r="Y7" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="Z7" s="45" t="s">
         <v>103</v>
       </c>
       <c r="AA7" s="1" t="s">
@@ -3010,16 +3002,16 @@
       <c r="AJ7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK7" s="44" t="s">
+      <c r="AK7" s="42" t="s">
         <v>57</v>
       </c>
       <c r="AL7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM7" s="44" t="s">
+      <c r="AM7" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AN7" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO7" s="38">
@@ -3052,55 +3044,55 @@
         <v>20</v>
       </c>
       <c r="I8" s="33">
-        <v>7090107</v>
+        <v>8100107</v>
       </c>
       <c r="J8" s="33">
-        <v>7090107</v>
+        <v>8100107</v>
       </c>
       <c r="K8" s="33">
-        <v>7090107</v>
+        <v>8100107</v>
       </c>
       <c r="L8" s="38">
         <v>1010107</v>
       </c>
       <c r="M8" s="33">
-        <v>7090107</v>
+        <v>8100107</v>
       </c>
       <c r="N8" s="1">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O8" s="1">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P8" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q8" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R8" s="1">
-        <v>7090613</v>
-      </c>
-      <c r="S8" s="44"/>
+        <v>8100613</v>
+      </c>
+      <c r="S8" s="42"/>
       <c r="T8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Y8" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="47" t="s">
+      <c r="Z8" s="45" t="s">
         <v>107</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -3118,23 +3110,23 @@
       <c r="AE8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="44"/>
+      <c r="AG8" s="42"/>
       <c r="AI8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK8" s="44" t="s">
+      <c r="AK8" s="42" t="s">
         <v>57</v>
       </c>
       <c r="AL8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM8" s="44" t="s">
+      <c r="AM8" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AN8" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO8" s="38">
@@ -3167,34 +3159,34 @@
         <v>23</v>
       </c>
       <c r="I9" s="33">
-        <v>7090108</v>
+        <v>8100108</v>
       </c>
       <c r="J9" s="33">
-        <v>7090108</v>
+        <v>8100108</v>
       </c>
       <c r="K9" s="33">
-        <v>7090108</v>
+        <v>8100108</v>
       </c>
       <c r="L9" s="38">
         <v>1010108</v>
       </c>
       <c r="M9" s="33">
-        <v>7090108</v>
+        <v>8100108</v>
       </c>
       <c r="N9" s="1">
-        <v>7090207</v>
+        <v>8100207</v>
       </c>
       <c r="O9" s="1">
-        <v>7090309</v>
+        <v>8100309</v>
       </c>
       <c r="P9" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q9" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R9" s="1">
-        <v>7090613</v>
+        <v>8100613</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>74</v>
@@ -3205,16 +3197,16 @@
       <c r="V9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W9" s="44" t="s">
+      <c r="W9" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="44" t="s">
+      <c r="Y9" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="47" t="s">
+      <c r="Z9" s="45" t="s">
         <v>111</v>
       </c>
       <c r="AA9" s="1" t="s">
@@ -3232,23 +3224,23 @@
       <c r="AE9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="44"/>
+      <c r="AG9" s="42"/>
       <c r="AI9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK9" s="44" t="s">
+      <c r="AK9" s="42" t="s">
         <v>57</v>
       </c>
       <c r="AL9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AM9" s="44" t="s">
+      <c r="AM9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AN9" s="44" t="s">
+      <c r="AN9" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO9" s="38">
@@ -3281,34 +3273,34 @@
         <v>25</v>
       </c>
       <c r="I10" s="33">
-        <v>7090109</v>
+        <v>8100109</v>
       </c>
       <c r="J10" s="33">
-        <v>7090109</v>
+        <v>8100109</v>
       </c>
       <c r="K10" s="33">
-        <v>7090109</v>
+        <v>8100109</v>
       </c>
       <c r="L10" s="38">
         <v>1010109</v>
       </c>
       <c r="M10" s="33">
-        <v>7090109</v>
+        <v>8100109</v>
       </c>
       <c r="N10" s="1">
-        <v>7090208</v>
+        <v>8100208</v>
       </c>
       <c r="O10" s="1">
-        <v>7090310</v>
+        <v>8100310</v>
       </c>
       <c r="P10" s="1">
-        <v>7090411</v>
+        <v>8100411</v>
       </c>
       <c r="Q10" s="1">
-        <v>7090512</v>
+        <v>8100512</v>
       </c>
       <c r="R10" s="1">
-        <v>7090613</v>
+        <v>8100613</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>45</v>
@@ -3316,19 +3308,19 @@
       <c r="U10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="44" t="s">
+      <c r="V10" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="44" t="s">
+      <c r="W10" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="44" t="s">
+      <c r="X10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" s="44" t="s">
+      <c r="Y10" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" s="47" t="s">
+      <c r="Z10" s="45" t="s">
         <v>116</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -3346,23 +3338,23 @@
       <c r="AE10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG10" s="44"/>
+      <c r="AG10" s="42"/>
       <c r="AI10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK10" s="44" t="s">
+      <c r="AK10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AL10" s="44" t="s">
+      <c r="AL10" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AM10" s="44" t="s">
+      <c r="AM10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AN10" s="44" t="s">
+      <c r="AN10" s="42" t="s">
         <v>60</v>
       </c>
       <c r="AO10" s="38">
@@ -3394,115 +3386,115 @@
       <c r="H11" s="29">
         <v>20</v>
       </c>
-      <c r="I11" s="39">
-        <v>7090109</v>
-      </c>
-      <c r="J11" s="39">
-        <v>7090109</v>
-      </c>
-      <c r="K11" s="39">
-        <v>7090109</v>
+      <c r="I11" s="33">
+        <v>8100110</v>
+      </c>
+      <c r="J11" s="33">
+        <v>8100110</v>
+      </c>
+      <c r="K11" s="33">
+        <v>8100110</v>
       </c>
       <c r="L11" s="38">
         <v>1010110</v>
       </c>
-      <c r="M11" s="39">
-        <v>7090109</v>
-      </c>
-      <c r="N11" s="40">
-        <v>7090208</v>
-      </c>
-      <c r="O11" s="40">
-        <v>7090310</v>
-      </c>
-      <c r="P11" s="40">
-        <v>7090411</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>7090512</v>
-      </c>
-      <c r="R11" s="40">
-        <v>7090613</v>
-      </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="42" t="s">
+      <c r="M11" s="33">
+        <v>8100110</v>
+      </c>
+      <c r="N11" s="39">
+        <v>8100208</v>
+      </c>
+      <c r="O11" s="39">
+        <v>8100310</v>
+      </c>
+      <c r="P11" s="39">
+        <v>8100411</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>8100512</v>
+      </c>
+      <c r="R11" s="39">
+        <v>8100613</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="U11" s="42" t="s">
+      <c r="U11" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="V11" s="46" t="s">
+      <c r="V11" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="W11" s="46" t="s">
+      <c r="W11" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" s="46" t="s">
+      <c r="Y11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="48" t="s">
+      <c r="Z11" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="42" t="s">
+      <c r="AA11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB11" s="42" t="s">
+      <c r="AB11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="42" t="s">
+      <c r="AC11" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD11" s="42" t="s">
+      <c r="AD11" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE11" s="42" t="s">
+      <c r="AE11" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42" t="s">
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ11" s="42" t="s">
+      <c r="AJ11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK11" s="46" t="s">
+      <c r="AK11" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL11" s="42" t="s">
+      <c r="AL11" s="40" t="s">
         <v>58</v>
       </c>
       <c r="AM11" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="AN11" s="46" t="s">
+      <c r="AN11" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO11" s="38">
         <v>1010110</v>
       </c>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
     </row>
     <row r="12" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -3529,115 +3521,115 @@
       <c r="H12" s="29">
         <v>20</v>
       </c>
-      <c r="I12" s="41">
-        <v>7090102</v>
-      </c>
-      <c r="J12" s="41">
-        <v>7090102</v>
-      </c>
-      <c r="K12" s="41">
-        <v>7090102</v>
+      <c r="I12" s="33">
+        <v>8100111</v>
+      </c>
+      <c r="J12" s="33">
+        <v>8100111</v>
+      </c>
+      <c r="K12" s="33">
+        <v>8100111</v>
       </c>
       <c r="L12" s="38">
         <v>1010111</v>
       </c>
-      <c r="M12" s="41">
-        <v>7090102</v>
-      </c>
-      <c r="N12" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O12" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P12" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q12" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R12" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="42" t="s">
+      <c r="M12" s="33">
+        <v>8100111</v>
+      </c>
+      <c r="N12" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O12" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P12" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R12" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S12" s="44"/>
+      <c r="T12" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="U12" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="V12" s="46" t="s">
+      <c r="V12" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="W12" s="46" t="s">
+      <c r="W12" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="X12" s="46" t="s">
+      <c r="X12" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="Y12" s="46" t="s">
+      <c r="Y12" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Z12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="AA12" s="42" t="s">
+      <c r="AA12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB12" s="42" t="s">
+      <c r="AB12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="42" t="s">
+      <c r="AC12" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD12" s="42" t="s">
+      <c r="AD12" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE12" s="42" t="s">
+      <c r="AE12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42" t="s">
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ12" s="42" t="s">
+      <c r="AJ12" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK12" s="46" t="s">
+      <c r="AK12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL12" s="42" t="s">
+      <c r="AL12" s="40" t="s">
         <v>58</v>
       </c>
       <c r="AM12" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="AN12" s="46" t="s">
+      <c r="AN12" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO12" s="38">
         <v>1010111</v>
       </c>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
     </row>
     <row r="13" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
@@ -3664,111 +3656,111 @@
       <c r="H13" s="29">
         <v>22</v>
       </c>
-      <c r="I13" s="41">
-        <v>7090106</v>
-      </c>
-      <c r="J13" s="41">
-        <v>7090106</v>
-      </c>
-      <c r="K13" s="41">
-        <v>7090106</v>
+      <c r="I13" s="33">
+        <v>8100112</v>
+      </c>
+      <c r="J13" s="33">
+        <v>8100112</v>
+      </c>
+      <c r="K13" s="33">
+        <v>8100112</v>
       </c>
       <c r="L13" s="38">
         <v>1010112</v>
       </c>
-      <c r="M13" s="41">
-        <v>7090106</v>
-      </c>
-      <c r="N13" s="42">
-        <v>7090208</v>
-      </c>
-      <c r="O13" s="42">
-        <v>7090310</v>
-      </c>
-      <c r="P13" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R13" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="T13" s="42" t="s">
+      <c r="M13" s="33">
+        <v>8100112</v>
+      </c>
+      <c r="N13" s="40">
+        <v>8100208</v>
+      </c>
+      <c r="O13" s="40">
+        <v>8100310</v>
+      </c>
+      <c r="P13" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R13" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="T13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="U13" s="42" t="s">
+      <c r="U13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="W13" s="46" t="s">
+      <c r="W13" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="46" t="s">
+      <c r="X13" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="46" t="s">
+      <c r="Y13" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AA13" s="42" t="s">
+      <c r="AA13" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB13" s="42" t="s">
+      <c r="AB13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="42" t="s">
+      <c r="AC13" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="42" t="s">
+      <c r="AD13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE13" s="42" t="s">
+      <c r="AE13" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42" t="s">
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AJ13" s="42" t="s">
+      <c r="AJ13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK13" s="46" t="s">
+      <c r="AK13" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AL13" s="42" t="s">
+      <c r="AL13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AM13" s="49" t="s">
+      <c r="AM13" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AN13" s="42" t="s">
+      <c r="AN13" s="40" t="s">
         <v>70</v>
       </c>
       <c r="AO13" s="38">
         <v>1010112</v>
       </c>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
     </row>
     <row r="14" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
@@ -3795,119 +3787,119 @@
       <c r="H14" s="29">
         <v>17</v>
       </c>
-      <c r="I14" s="41">
-        <v>7090103</v>
-      </c>
-      <c r="J14" s="41">
-        <v>7090103</v>
-      </c>
-      <c r="K14" s="41">
-        <v>7090103</v>
+      <c r="I14" s="33">
+        <v>8100113</v>
+      </c>
+      <c r="J14" s="33">
+        <v>8100113</v>
+      </c>
+      <c r="K14" s="33">
+        <v>8100113</v>
       </c>
       <c r="L14" s="38">
         <v>1010113</v>
       </c>
-      <c r="M14" s="41">
-        <v>7090103</v>
-      </c>
-      <c r="N14" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O14" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P14" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q14" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R14" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="42" t="s">
+      <c r="M14" s="33">
+        <v>8100113</v>
+      </c>
+      <c r="N14" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O14" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P14" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R14" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S14" s="44"/>
+      <c r="T14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="U14" s="42" t="s">
+      <c r="U14" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="V14" s="42" t="s">
+      <c r="V14" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="W14" s="46" t="s">
+      <c r="W14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="46" t="s">
+      <c r="X14" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Y14" s="46" t="s">
+      <c r="Y14" s="44" t="s">
         <v>79</v>
       </c>
       <c r="Z14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="AA14" s="42" t="s">
+      <c r="AA14" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="42" t="s">
+      <c r="AB14" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="42" t="s">
+      <c r="AC14" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD14" s="42" t="s">
+      <c r="AD14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="42" t="s">
+      <c r="AE14" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42" t="s">
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ14" s="42" t="s">
+      <c r="AJ14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK14" s="46" t="s">
+      <c r="AK14" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL14" s="42" t="s">
+      <c r="AL14" s="40" t="s">
         <v>58</v>
       </c>
       <c r="AM14" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AN14" s="46" t="s">
+      <c r="AN14" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO14" s="38">
         <v>1010113</v>
       </c>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BI14" s="40"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="40"/>
     </row>
     <row r="15" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
@@ -3934,120 +3926,120 @@
       <c r="H15" s="30">
         <v>11</v>
       </c>
-      <c r="I15" s="41">
-        <v>7090104</v>
-      </c>
-      <c r="J15" s="41">
-        <v>7090104</v>
-      </c>
-      <c r="K15" s="41">
-        <v>7090104</v>
+      <c r="I15" s="33">
+        <v>8100114</v>
+      </c>
+      <c r="J15" s="33">
+        <v>8100114</v>
+      </c>
+      <c r="K15" s="33">
+        <v>8100114</v>
       </c>
       <c r="L15" s="38">
         <v>1010114</v>
       </c>
-      <c r="M15" s="41">
-        <v>7090104</v>
-      </c>
-      <c r="N15" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O15" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P15" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R15" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="42" t="s">
+      <c r="M15" s="33">
+        <v>8100114</v>
+      </c>
+      <c r="N15" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O15" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P15" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R15" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S15" s="44"/>
+      <c r="T15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V15" s="42" t="s">
+      <c r="V15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="46" t="s">
+      <c r="W15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="46" t="s">
+      <c r="X15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="46" t="s">
+      <c r="Y15" s="44" t="s">
         <v>65</v>
       </c>
       <c r="Z15" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="AA15" s="42" t="s">
+      <c r="AA15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" s="42" t="s">
+      <c r="AB15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="42" t="s">
+      <c r="AC15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="42" t="s">
+      <c r="AD15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE15" s="42" t="s">
+      <c r="AE15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42" t="s">
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="AJ15" s="42" t="s">
+      <c r="AJ15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK15" s="46" t="s">
+      <c r="AK15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AL15" s="46" t="s">
+      <c r="AL15" s="44" t="s">
         <v>69</v>
       </c>
       <c r="AM15" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="AN15" s="46" t="s">
+      <c r="AN15" s="44" t="s">
         <v>70</v>
       </c>
       <c r="AO15" s="38">
         <v>1010114</v>
       </c>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="42"/>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="42"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="42"/>
-      <c r="BL15" s="42"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="40"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="40"/>
+      <c r="BH15" s="40"/>
+      <c r="BI15" s="40"/>
+      <c r="BJ15" s="40"/>
+      <c r="BK15" s="40"/>
+      <c r="BL15" s="40"/>
     </row>
     <row r="16" spans="1:66" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
@@ -4074,122 +4066,122 @@
       <c r="H16" s="29">
         <v>20</v>
       </c>
-      <c r="I16" s="41">
-        <v>7090107</v>
-      </c>
-      <c r="J16" s="41">
-        <v>7090107</v>
-      </c>
-      <c r="K16" s="41">
-        <v>7090107</v>
+      <c r="I16" s="33">
+        <v>8100115</v>
+      </c>
+      <c r="J16" s="33">
+        <v>8100115</v>
+      </c>
+      <c r="K16" s="33">
+        <v>8100115</v>
       </c>
       <c r="L16" s="38">
         <v>1010115</v>
       </c>
-      <c r="M16" s="41">
-        <v>7090107</v>
-      </c>
-      <c r="N16" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O16" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P16" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q16" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R16" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="42" t="s">
+      <c r="M16" s="33">
+        <v>8100115</v>
+      </c>
+      <c r="N16" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O16" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P16" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R16" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="42" t="s">
+      <c r="U16" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="V16" s="46" t="s">
+      <c r="V16" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="46" t="s">
+      <c r="W16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="Y16" s="46" t="s">
+      <c r="Y16" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Z16" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AA16" s="42" t="s">
+      <c r="AA16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="42" t="s">
+      <c r="AB16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="42" t="s">
+      <c r="AC16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD16" s="42" t="s">
+      <c r="AD16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE16" s="42" t="s">
+      <c r="AE16" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42" t="s">
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ16" s="42" t="s">
+      <c r="AJ16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK16" s="46" t="s">
+      <c r="AK16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL16" s="42" t="s">
+      <c r="AL16" s="40" t="s">
         <v>58</v>
       </c>
       <c r="AM16" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="AN16" s="46" t="s">
+      <c r="AN16" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO16" s="38">
         <v>1010115</v>
       </c>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="42"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="42"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="42"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="40"/>
+      <c r="BB16" s="40"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="40"/>
+      <c r="BE16" s="40"/>
+      <c r="BF16" s="40"/>
+      <c r="BG16" s="40"/>
+      <c r="BH16" s="40"/>
+      <c r="BI16" s="40"/>
+      <c r="BJ16" s="40"/>
+      <c r="BK16" s="40"/>
+      <c r="BL16" s="40"/>
+      <c r="BM16" s="40"/>
+      <c r="BN16" s="40"/>
     </row>
     <row r="17" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
@@ -4216,104 +4208,104 @@
       <c r="H17" s="29">
         <v>24</v>
       </c>
-      <c r="I17" s="41">
-        <v>7090101</v>
-      </c>
-      <c r="J17" s="41">
-        <v>7090101</v>
-      </c>
-      <c r="K17" s="41">
-        <v>7090101</v>
+      <c r="I17" s="33">
+        <v>8100116</v>
+      </c>
+      <c r="J17" s="33">
+        <v>8100116</v>
+      </c>
+      <c r="K17" s="33">
+        <v>8100116</v>
       </c>
       <c r="L17" s="38">
         <v>1010116</v>
       </c>
-      <c r="M17" s="41">
-        <v>7090101</v>
-      </c>
-      <c r="N17" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O17" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P17" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R17" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="42" t="s">
+      <c r="M17" s="33">
+        <v>8100116</v>
+      </c>
+      <c r="N17" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O17" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P17" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R17" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S17" s="44"/>
+      <c r="T17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="42" t="s">
+      <c r="U17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V17" s="42" t="s">
+      <c r="V17" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="46" t="s">
+      <c r="W17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="X17" s="46" t="s">
+      <c r="X17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Y17" s="46" t="s">
+      <c r="Y17" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Z17" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AA17" s="42" t="s">
+      <c r="AA17" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB17" s="42" t="s">
+      <c r="AB17" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC17" s="42" t="s">
+      <c r="AC17" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE17" s="42" t="s">
+      <c r="AE17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42" t="s">
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ17" s="42" t="s">
+      <c r="AJ17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK17" s="46" t="s">
+      <c r="AK17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL17" s="46" t="s">
+      <c r="AL17" s="44" t="s">
         <v>58</v>
       </c>
       <c r="AM17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AN17" s="46" t="s">
+      <c r="AN17" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO17" s="38">
         <v>1010116</v>
       </c>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
     </row>
     <row r="18" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
@@ -4340,120 +4332,120 @@
       <c r="H18" s="28">
         <v>23</v>
       </c>
-      <c r="I18" s="41">
-        <v>7090108</v>
-      </c>
-      <c r="J18" s="41">
-        <v>7090108</v>
-      </c>
-      <c r="K18" s="41">
-        <v>7090108</v>
+      <c r="I18" s="33">
+        <v>8100117</v>
+      </c>
+      <c r="J18" s="33">
+        <v>8100117</v>
+      </c>
+      <c r="K18" s="33">
+        <v>8100117</v>
       </c>
       <c r="L18" s="38">
         <v>1010117</v>
       </c>
-      <c r="M18" s="41">
-        <v>7090108</v>
-      </c>
-      <c r="N18" s="42">
-        <v>7090207</v>
-      </c>
-      <c r="O18" s="42">
-        <v>7090309</v>
-      </c>
-      <c r="P18" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R18" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42" t="s">
+      <c r="M18" s="33">
+        <v>8100117</v>
+      </c>
+      <c r="N18" s="40">
+        <v>8100207</v>
+      </c>
+      <c r="O18" s="40">
+        <v>8100309</v>
+      </c>
+      <c r="P18" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R18" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="U18" s="42" t="s">
+      <c r="U18" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="V18" s="42" t="s">
+      <c r="V18" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="W18" s="46" t="s">
+      <c r="W18" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="46" t="s">
+      <c r="X18" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="46" t="s">
+      <c r="Y18" s="44" t="s">
         <v>79</v>
       </c>
       <c r="Z18" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AA18" s="42" t="s">
+      <c r="AA18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB18" s="42" t="s">
+      <c r="AB18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="42" t="s">
+      <c r="AC18" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD18" s="42" t="s">
+      <c r="AD18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE18" s="42" t="s">
+      <c r="AE18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42" t="s">
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ18" s="42" t="s">
+      <c r="AJ18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK18" s="46" t="s">
+      <c r="AK18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL18" s="42" t="s">
+      <c r="AL18" s="40" t="s">
         <v>58</v>
       </c>
       <c r="AM18" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AN18" s="46" t="s">
+      <c r="AN18" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO18" s="38">
         <v>1010117</v>
       </c>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="42"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="40"/>
+      <c r="BE18" s="40"/>
+      <c r="BF18" s="40"/>
+      <c r="BG18" s="40"/>
+      <c r="BH18" s="40"/>
+      <c r="BI18" s="40"/>
+      <c r="BJ18" s="40"/>
+      <c r="BK18" s="40"/>
+      <c r="BL18" s="40"/>
     </row>
     <row r="19" spans="1:65" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
@@ -4480,178 +4472,178 @@
       <c r="H19" s="29">
         <v>25</v>
       </c>
-      <c r="I19" s="41">
-        <v>7090109</v>
-      </c>
-      <c r="J19" s="41">
-        <v>7090109</v>
-      </c>
-      <c r="K19" s="41">
-        <v>7090109</v>
+      <c r="I19" s="33">
+        <v>8100118</v>
+      </c>
+      <c r="J19" s="33">
+        <v>8100118</v>
+      </c>
+      <c r="K19" s="33">
+        <v>8100118</v>
       </c>
       <c r="L19" s="38">
         <v>1010118</v>
       </c>
-      <c r="M19" s="41">
-        <v>7090109</v>
-      </c>
-      <c r="N19" s="42">
-        <v>7090208</v>
-      </c>
-      <c r="O19" s="42">
-        <v>7090310</v>
-      </c>
-      <c r="P19" s="42">
-        <v>7090411</v>
-      </c>
-      <c r="Q19" s="42">
-        <v>7090512</v>
-      </c>
-      <c r="R19" s="42">
-        <v>7090613</v>
-      </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42" t="s">
+      <c r="M19" s="33">
+        <v>8100118</v>
+      </c>
+      <c r="N19" s="40">
+        <v>8100208</v>
+      </c>
+      <c r="O19" s="40">
+        <v>8100310</v>
+      </c>
+      <c r="P19" s="40">
+        <v>8100411</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>8100512</v>
+      </c>
+      <c r="R19" s="40">
+        <v>8100613</v>
+      </c>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="U19" s="42" t="s">
+      <c r="U19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="46" t="s">
+      <c r="V19" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="W19" s="46" t="s">
+      <c r="W19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="46" t="s">
+      <c r="X19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="46" t="s">
+      <c r="Y19" s="44" t="s">
         <v>65</v>
       </c>
       <c r="Z19" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AA19" s="42" t="s">
+      <c r="AA19" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AB19" s="42" t="s">
+      <c r="AB19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" s="42" t="s">
+      <c r="AC19" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="AD19" s="42" t="s">
+      <c r="AD19" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AE19" s="42" t="s">
+      <c r="AE19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42" t="s">
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AJ19" s="42" t="s">
+      <c r="AJ19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AK19" s="46" t="s">
+      <c r="AK19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AL19" s="46" t="s">
+      <c r="AL19" s="44" t="s">
         <v>58</v>
       </c>
       <c r="AM19" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AN19" s="46" t="s">
+      <c r="AN19" s="44" t="s">
         <v>60</v>
       </c>
       <c r="AO19" s="38">
         <v>1010118</v>
       </c>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="42"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="40"/>
+      <c r="BB19" s="40"/>
+      <c r="BC19" s="40"/>
+      <c r="BD19" s="40"/>
+      <c r="BE19" s="40"/>
+      <c r="BF19" s="40"/>
+      <c r="BG19" s="40"/>
+      <c r="BH19" s="40"/>
+      <c r="BI19" s="40"/>
+      <c r="BJ19" s="40"/>
+      <c r="BK19" s="40"/>
+      <c r="BL19" s="40"/>
+      <c r="BM19" s="40"/>
     </row>
     <row r="20" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC20" s="50"/>
+      <c r="AC20" s="48"/>
     </row>
     <row r="21" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC21" s="50"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
+      <c r="AC21" s="48"/>
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="54"/>
     </row>
     <row r="22" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC22" s="50"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
+      <c r="AC22" s="48"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="54"/>
     </row>
     <row r="23" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC23" s="50"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="56"/>
+      <c r="AC23" s="48"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="54"/>
     </row>
     <row r="24" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC24" s="50"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
+      <c r="AC24" s="48"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="54"/>
     </row>
     <row r="25" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC25" s="50"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
+      <c r="AC25" s="48"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="54"/>
     </row>
     <row r="26" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AC26" s="50"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
+      <c r="AC26" s="48"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="54"/>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="54"/>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="54"/>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="54"/>
     </row>
     <row r="30" spans="1:65" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="57"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="55"/>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="56"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="54"/>
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Table/Table_xls/j角色创建配置.xlsx
+++ b/Table/Table_xls/j角色创建配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 DT</t>
         </r>
       </text>
@@ -38,11 +37,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -52,11 +50,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 神木林</t>
         </r>
       </text>
@@ -66,11 +63,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 化生寺</t>
         </r>
       </text>
@@ -80,11 +76,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -94,11 +89,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 DT</t>
         </r>
       </text>
@@ -108,11 +102,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 狮驼岭</t>
         </r>
       </text>
@@ -122,11 +115,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 阴曹地府</t>
         </r>
       </text>
@@ -136,11 +128,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 魔王寨</t>
         </r>
       </text>
@@ -150,11 +141,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 WDD</t>
         </r>
       </text>
@@ -164,11 +154,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 阴曹地府</t>
         </r>
       </text>
@@ -178,11 +167,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 盘丝洞</t>
         </r>
       </text>
@@ -192,11 +180,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -206,11 +193,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 五庄观</t>
         </r>
       </text>
@@ -220,11 +206,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 凌波城</t>
         </r>
       </text>
@@ -234,11 +219,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -248,11 +232,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 普陀山</t>
         </r>
       </text>
@@ -262,11 +245,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 月宫</t>
         </r>
       </text>
@@ -276,11 +258,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -290,11 +271,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 五庄观</t>
         </r>
       </text>
@@ -304,11 +284,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 凌波城</t>
         </r>
       </text>
@@ -318,11 +297,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 狮驼岭</t>
         </r>
       </text>
@@ -332,11 +310,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 魔王寨</t>
         </r>
       </text>
@@ -346,11 +323,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 WDD</t>
         </r>
       </text>
@@ -360,11 +336,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 神木林</t>
         </r>
       </text>
@@ -374,11 +349,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -388,11 +362,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 女儿村</t>
         </r>
       </text>
@@ -402,11 +375,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -416,11 +388,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 五庄观</t>
         </r>
       </text>
@@ -430,11 +401,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 凌波城</t>
         </r>
       </text>
@@ -444,11 +414,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -458,11 +427,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 五庄观</t>
         </r>
       </text>
@@ -472,11 +440,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 凌波城</t>
         </r>
       </text>
@@ -486,11 +453,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 WDD</t>
         </r>
       </text>
@@ -500,11 +466,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 阴曹地府</t>
         </r>
       </text>
@@ -514,11 +479,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 盘丝洞</t>
         </r>
       </text>
@@ -528,11 +492,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 狮驼岭</t>
         </r>
       </text>
@@ -542,11 +505,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 阴曹地府</t>
         </r>
       </text>
@@ -556,11 +518,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 魔王寨</t>
         </r>
       </text>
@@ -570,11 +531,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 化生寺</t>
         </r>
       </text>
@@ -584,11 +544,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -598,11 +557,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 DT</t>
         </r>
       </text>
@@ -612,11 +570,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 LG</t>
         </r>
       </text>
@@ -626,11 +583,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 五庄观</t>
         </r>
       </text>
@@ -640,11 +596,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 凌波城</t>
         </r>
       </text>
@@ -654,11 +609,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 DT</t>
         </r>
       </text>
@@ -668,11 +622,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -682,11 +635,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 神木林</t>
         </r>
       </text>
@@ -696,11 +648,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 狮驼岭</t>
         </r>
       </text>
@@ -710,11 +661,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 魔王寨</t>
         </r>
       </text>
@@ -724,11 +674,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 WDD</t>
         </r>
       </text>
@@ -738,11 +687,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 神木林</t>
         </r>
       </text>
@@ -752,11 +700,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 方寸</t>
         </r>
       </text>
@@ -766,11 +713,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Administrator:
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
 女儿村</t>
         </r>
       </text>
@@ -780,7 +726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="159">
   <si>
     <t>角色id</t>
   </si>
@@ -1576,12 +1522,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1611,8 +1557,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,38 +1602,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1693,6 +1632,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1703,22 +1658,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1740,19 +1680,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1800,7 +1751,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,13 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,25 +1889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,109 +1913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,15 +1953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2022,6 +1964,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2044,17 +1995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,6 +2012,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,11 +2044,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,10 +2058,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,133 +2070,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2427,6 +2378,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2753,12 +2709,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BN32"/>
   <sheetViews>
@@ -2767,40 +2722,40 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="28.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.57142857142857" style="5"/>
-    <col min="7" max="7" width="9.14285714285714" style="5"/>
+    <col min="4" max="4" width="28.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="16.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="9.57407407407407" style="5"/>
+    <col min="7" max="7" width="9.13888888888889" style="5"/>
     <col min="8" max="8" width="22" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.2857142857143" style="7" customWidth="1"/>
-    <col min="10" max="11" width="15.2857142857143" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.7142857142857" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.28571428571429" customWidth="1"/>
+    <col min="9" max="9" width="15.287037037037" style="7" customWidth="1"/>
+    <col min="10" max="11" width="15.287037037037" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.712962962963" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.28703703703704" customWidth="1"/>
     <col min="14" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="51.4285714285714" customWidth="1"/>
-    <col min="20" max="20" width="41.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="40.4285714285714" customWidth="1"/>
+    <col min="19" max="19" width="51.4259259259259" customWidth="1"/>
+    <col min="20" max="20" width="41.8611111111111" customWidth="1"/>
+    <col min="21" max="21" width="40.4259259259259" customWidth="1"/>
     <col min="22" max="22" width="46" customWidth="1"/>
     <col min="23" max="23" width="45" customWidth="1"/>
-    <col min="24" max="25" width="46.4285714285714" customWidth="1"/>
-    <col min="26" max="26" width="37.2857142857143" style="10" customWidth="1"/>
+    <col min="24" max="25" width="46.4259259259259" customWidth="1"/>
+    <col min="26" max="26" width="37.287037037037" style="10" customWidth="1"/>
     <col min="27" max="27" width="40" customWidth="1"/>
-    <col min="28" max="28" width="42.2857142857143" customWidth="1"/>
-    <col min="29" max="30" width="40.1428571428571" customWidth="1"/>
-    <col min="31" max="31" width="43.8571428571429" customWidth="1"/>
-    <col min="33" max="33" width="29.5714285714286" customWidth="1"/>
-    <col min="35" max="35" width="45.7142857142857" customWidth="1"/>
-    <col min="36" max="36" width="41.8571428571429" customWidth="1"/>
-    <col min="37" max="37" width="39.1428571428571" customWidth="1"/>
-    <col min="38" max="38" width="27.1428571428571" customWidth="1"/>
-    <col min="39" max="39" width="49.2857142857143" customWidth="1"/>
-    <col min="40" max="40" width="25.4285714285714" customWidth="1"/>
-    <col min="41" max="41" width="19.4285714285714" customWidth="1"/>
+    <col min="28" max="28" width="42.287037037037" customWidth="1"/>
+    <col min="29" max="30" width="40.1388888888889" customWidth="1"/>
+    <col min="31" max="31" width="43.8611111111111" customWidth="1"/>
+    <col min="33" max="33" width="29.5740740740741" customWidth="1"/>
+    <col min="35" max="35" width="45.712962962963" customWidth="1"/>
+    <col min="36" max="36" width="41.8611111111111" customWidth="1"/>
+    <col min="37" max="37" width="39.1388888888889" customWidth="1"/>
+    <col min="38" max="38" width="27.1388888888889" customWidth="1"/>
+    <col min="39" max="39" width="49.287037037037" customWidth="1"/>
+    <col min="40" max="40" width="25.4259259259259" customWidth="1"/>
+    <col min="41" max="41" width="19.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -4359,7 +4314,7 @@
       <c r="BC13" s="44"/>
       <c r="BD13" s="44"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="13.5" spans="1:63">
+    <row r="14" s="3" customFormat="1" ht="14.4" spans="1:63">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -4498,7 +4453,7 @@
       <c r="BJ14" s="44"/>
       <c r="BK14" s="44"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="13.5" spans="1:64">
+    <row r="15" s="4" customFormat="1" ht="14.4" spans="1:64">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -4638,7 +4593,7 @@
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="13.5" spans="1:66">
+    <row r="16" s="3" customFormat="1" ht="14.4" spans="1:66">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -5185,35 +5140,35 @@
       <c r="BL19" s="44"/>
       <c r="BM19" s="44"/>
     </row>
-    <row r="20" ht="13.5" spans="29:29">
+    <row r="20" ht="14.4" spans="29:29">
       <c r="AC20" s="54"/>
     </row>
-    <row r="21" ht="13.5" spans="29:39">
+    <row r="21" ht="14.4" spans="29:39">
       <c r="AC21" s="54"/>
       <c r="AL21" s="55"/>
       <c r="AM21" s="56"/>
     </row>
-    <row r="22" ht="13.5" spans="29:39">
+    <row r="22" ht="14.4" spans="29:39">
       <c r="AC22" s="54"/>
       <c r="AL22" s="55"/>
       <c r="AM22" s="56"/>
     </row>
-    <row r="23" ht="13.5" spans="29:39">
+    <row r="23" ht="14.4" spans="29:39">
       <c r="AC23" s="54"/>
       <c r="AL23" s="55"/>
       <c r="AM23" s="56"/>
     </row>
-    <row r="24" ht="13.5" spans="29:39">
+    <row r="24" ht="14.4" spans="29:39">
       <c r="AC24" s="54"/>
       <c r="AL24" s="55"/>
       <c r="AM24" s="56"/>
     </row>
-    <row r="25" ht="13.5" spans="29:39">
+    <row r="25" ht="14.4" spans="29:39">
       <c r="AC25" s="54"/>
       <c r="AL25" s="55"/>
       <c r="AM25" s="56"/>
     </row>
-    <row r="26" ht="13.5" spans="29:39">
+    <row r="26" ht="14.4" spans="29:39">
       <c r="AC26" s="54"/>
       <c r="AL26" s="55"/>
       <c r="AM26" s="56"/>
@@ -5230,7 +5185,7 @@
       <c r="AL29" s="55"/>
       <c r="AM29" s="56"/>
     </row>
-    <row r="30" ht="13.5" spans="38:39">
+    <row r="30" ht="14.4" spans="38:39">
       <c r="AL30" s="55"/>
       <c r="AM30" s="57"/>
     </row>

--- a/Table/Table_xls/j角色创建配置.xlsx
+++ b/Table/Table_xls/j角色创建配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1522,10 +1522,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1557,121 +1557,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1687,8 +1572,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,6 +1660,44 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1751,7 +1751,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,7 +1865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,25 +1895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,115 +1913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,26 +1953,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1996,7 +1987,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,17 +2033,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2058,10 +2058,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2070,133 +2070,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
